--- a/HiveWorks/src/main/webapp/resources/upload/excelformat/upload_excel_format.xlsx
+++ b/HiveWorks/src/main/webapp/resources/upload/excelformat/upload_excel_format.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\KTH_DATA\finalproject\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7453EC-9B33-461E-A220-F77C89A8EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB322CF-8687-4A1D-A594-E28BD8F8FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82EB6F55-9915-4045-9458-4D99B96E46B4}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>사원번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>입사일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴사일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,6 +517,14 @@
   <si>
     <t>(공란)
 예시입니다 삭제X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEP243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,12 +559,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -962,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9DE7E-28A6-4A85-AF0A-0E4B2A3D41CA}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,24 +973,24 @@
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="7.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="3"/>
-    <col min="19" max="19" width="32.625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="32.625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="7.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1011,7 +1009,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1030,16 +1028,16 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>12</v>
@@ -1053,105 +1051,105 @@
       <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>43833</v>
       </c>
-      <c r="G2" s="1">
-        <v>44564</v>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="R3" s="2"/>
-      <c r="V3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="6"/>
+      <c r="U3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{56FC04A2-8AC6-4D30-A794-2F48A34C7945}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{56FC04A2-8AC6-4D30-A794-2F48A34C7945}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -1160,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F460082-1665-47DD-A11D-45947698BEAE}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,308 +1173,316 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
       <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
       <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
       <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
       <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
         <v>59</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
       <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
         <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
